--- a/CP062/Default.xlsx
+++ b/CP062/Default.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
   <si>
     <t>e_WIC_ValidaCli</t>
   </si>
@@ -28,6 +28,9 @@
     <t>SI</t>
   </si>
   <si>
+    <t>8958080008100291845</t>
+  </si>
+  <si>
     <t>s_Resultado</t>
   </si>
   <si>
@@ -52,6 +55,9 @@
     <t>Timer</t>
   </si>
   <si>
+    <t>Pasaporte</t>
+  </si>
+  <si>
     <t>e_Financiamiento_Externo</t>
   </si>
   <si>
@@ -118,9 +124,6 @@
     <t>Inicio</t>
   </si>
   <si>
-    <t>DNI</t>
-  </si>
-  <si>
     <t>e_ModeloCelular</t>
   </si>
   <si>
@@ -145,9 +148,6 @@
     <t>e_CR3988</t>
   </si>
   <si>
-    <t>123900000144165</t>
-  </si>
-  <si>
     <t>s_ID_Servicio</t>
   </si>
   <si>
@@ -166,9 +166,6 @@
     <t>NO</t>
   </si>
   <si>
-    <t>8958080008100291837</t>
-  </si>
-  <si>
     <t>e_Password</t>
   </si>
   <si>
@@ -200,6 +197,12 @@
   </si>
   <si>
     <t>En Tienda</t>
+  </si>
+  <si>
+    <t>123900000144173</t>
+  </si>
+  <si>
+    <t>000002974</t>
   </si>
   <si>
     <t>Tipo_Plan</t>
@@ -388,7 +391,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -407,6 +410,9 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -732,7 +738,7 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="13.5"/>
@@ -769,76 +775,76 @@
         <v>0</v>
       </c>
       <c t="s">
+        <v>56</v>
+      </c>
+      <c t="s">
+        <v>24</v>
+      </c>
+      <c t="s">
         <v>57</v>
       </c>
       <c t="s">
         <v>22</v>
       </c>
       <c t="s">
-        <v>58</v>
-      </c>
-      <c t="s">
-        <v>20</v>
-      </c>
-      <c t="s">
         <v>45</v>
       </c>
       <c t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s">
         <v>46</v>
       </c>
       <c t="s">
+        <v>15</v>
+      </c>
+      <c t="s">
+        <v>31</v>
+      </c>
+      <c t="s">
+        <v>16</v>
+      </c>
+      <c t="s">
+        <v>12</v>
+      </c>
+      <c t="s">
+        <v>49</v>
+      </c>
+      <c t="s">
+        <v>53</v>
+      </c>
+      <c t="s">
+        <v>18</v>
+      </c>
+      <c t="s">
+        <v>41</v>
+      </c>
+      <c t="s">
+        <v>25</v>
+      </c>
+      <c t="s">
+        <v>9</v>
+      </c>
+      <c t="s">
+        <v>26</v>
+      </c>
+      <c t="s">
         <v>13</v>
       </c>
       <c t="s">
-        <v>29</v>
-      </c>
-      <c t="s">
-        <v>14</v>
+        <v>42</v>
+      </c>
+      <c t="s">
+        <v>3</v>
+      </c>
+      <c t="s">
+        <v>4</v>
+      </c>
+      <c t="s">
+        <v>54</v>
       </c>
       <c t="s">
         <v>10</v>
-      </c>
-      <c t="s">
-        <v>50</v>
-      </c>
-      <c t="s">
-        <v>54</v>
-      </c>
-      <c t="s">
-        <v>16</v>
-      </c>
-      <c t="s">
-        <v>40</v>
-      </c>
-      <c t="s">
-        <v>23</v>
-      </c>
-      <c t="s">
-        <v>8</v>
-      </c>
-      <c t="s">
-        <v>24</v>
-      </c>
-      <c t="s">
-        <v>11</v>
-      </c>
-      <c t="s">
-        <v>42</v>
-      </c>
-      <c t="s">
-        <v>2</v>
-      </c>
-      <c t="s">
-        <v>3</v>
-      </c>
-      <c t="s">
-        <v>55</v>
-      </c>
-      <c t="s">
-        <v>9</v>
       </c>
     </row>
     <row ht="37.5" s="2" customFormat="1">
@@ -849,61 +855,61 @@
         <v>1</v>
       </c>
       <c s="1" t="s">
+        <v>51</v>
+      </c>
+      <c s="1" t="s">
+        <v>51</v>
+      </c>
+      <c s="4" t="s">
+        <v>23</v>
+      </c>
+      <c s="4" t="s">
+        <v>23</v>
+      </c>
+      <c s="4" t="s">
         <v>52</v>
       </c>
       <c s="1" t="s">
-        <v>52</v>
-      </c>
-      <c s="4" t="s">
-        <v>21</v>
-      </c>
-      <c s="4" t="s">
-        <v>21</v>
-      </c>
-      <c s="4" t="s">
-        <v>53</v>
-      </c>
-      <c s="1" t="s">
-        <v>39</v>
-      </c>
-      <c s="1" t="s">
-        <v>34</v>
+        <v>40</v>
+      </c>
+      <c s="1" t="s">
+        <v>35</v>
       </c>
       <c s="1"/>
       <c s="1" t="s">
+        <v>58</v>
+      </c>
+      <c s="1" t="s">
+        <v>47</v>
+      </c>
+      <c s="1"/>
+      <c s="1" t="s">
+        <v>17</v>
+      </c>
+      <c s="1" t="s">
+        <v>32</v>
+      </c>
+      <c s="1" t="s">
+        <v>47</v>
+      </c>
+      <c s="1" t="s">
+        <v>28</v>
+      </c>
+      <c s="5" t="s">
+        <v>2</v>
+      </c>
+      <c s="5" t="s">
         <v>59</v>
-      </c>
-      <c s="1" t="s">
-        <v>47</v>
-      </c>
-      <c s="1"/>
-      <c s="1" t="s">
-        <v>15</v>
-      </c>
-      <c s="1" t="s">
-        <v>30</v>
-      </c>
-      <c s="1" t="s">
-        <v>47</v>
-      </c>
-      <c s="1" t="s">
-        <v>26</v>
-      </c>
-      <c s="5" t="s">
-        <v>48</v>
-      </c>
-      <c s="5" t="s">
-        <v>41</v>
       </c>
       <c s="1"/>
       <c s="1"/>
       <c s="1"/>
       <c s="1"/>
       <c s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -936,33 +942,33 @@
   <sheetData>
     <row ht="12.75" customHeight="1" customFormat="1">
       <c t="s">
-        <v>31</v>
-      </c>
-      <c t="s">
-        <v>12</v>
-      </c>
-      <c t="s">
-        <v>17</v>
-      </c>
-      <c t="s">
-        <v>49</v>
-      </c>
-      <c t="s">
-        <v>2</v>
-      </c>
-      <c t="s">
-        <v>35</v>
-      </c>
-      <c t="s">
-        <v>9</v>
+        <v>33</v>
+      </c>
+      <c t="s">
+        <v>14</v>
+      </c>
+      <c t="s">
+        <v>19</v>
+      </c>
+      <c t="s">
+        <v>48</v>
+      </c>
+      <c t="s">
+        <v>3</v>
+      </c>
+      <c t="s">
+        <v>36</v>
+      </c>
+      <c t="s">
+        <v>10</v>
       </c>
     </row>
     <row>
       <c s="1" t="s">
-        <v>4</v>
-      </c>
-      <c s="1" t="s">
-        <v>37</v>
+        <v>5</v>
+      </c>
+      <c s="1" t="s">
+        <v>38</v>
       </c>
       <c s="1" t="s">
         <v>43</v>
@@ -971,13 +977,13 @@
         <v>44</v>
       </c>
       <c s="1" t="s">
-        <v>4</v>
-      </c>
-      <c s="1" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c s="1" t="s">
+        <v>5</v>
       </c>
       <c s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -995,34 +1001,34 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="19.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.8828125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6953125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.140625" style="2" customWidth="1"/>
     <col min="4" max="16384" width="9.1484375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row ht="12.75" customHeight="1" customFormat="1">
       <c t="s">
-        <v>18</v>
-      </c>
-      <c t="s">
-        <v>5</v>
-      </c>
-      <c t="s">
-        <v>56</v>
+        <v>20</v>
+      </c>
+      <c t="s">
+        <v>6</v>
+      </c>
+      <c t="s">
+        <v>55</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1">
       <c s="1" t="s">
-        <v>32</v>
-      </c>
-      <c s="1">
-        <v>47934093</v>
+        <v>11</v>
+      </c>
+      <c s="7" t="s">
+        <v>60</v>
       </c>
       <c s="3"/>
     </row>
@@ -1051,12 +1057,12 @@
   <sheetData>
     <row ht="12.75" customHeight="1" customFormat="1">
       <c t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row>
       <c s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1089,36 +1095,36 @@
   <sheetData>
     <row ht="12.75" customHeight="1" customFormat="1">
       <c t="s">
-        <v>60</v>
-      </c>
-      <c t="s">
-        <v>19</v>
-      </c>
-      <c t="s">
-        <v>27</v>
-      </c>
-      <c t="s">
-        <v>38</v>
-      </c>
-      <c t="s">
-        <v>51</v>
+        <v>61</v>
+      </c>
+      <c t="s">
+        <v>21</v>
+      </c>
+      <c t="s">
+        <v>29</v>
+      </c>
+      <c t="s">
+        <v>39</v>
+      </c>
+      <c t="s">
+        <v>50</v>
       </c>
     </row>
     <row>
       <c s="1" t="s">
-        <v>6</v>
-      </c>
-      <c s="1" t="s">
-        <v>25</v>
-      </c>
-      <c s="1" t="s">
-        <v>36</v>
-      </c>
-      <c s="1" t="s">
         <v>7</v>
       </c>
+      <c s="1" t="s">
+        <v>27</v>
+      </c>
+      <c s="1" t="s">
+        <v>37</v>
+      </c>
+      <c s="1" t="s">
+        <v>8</v>
+      </c>
       <c s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
